--- a/techniqo/data_new_ticker/KPITTECH.xlsx
+++ b/techniqo/data_new_ticker/KPITTECH.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G346"/>
+  <dimension ref="A1:G348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12496,6 +12496,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="C347" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="D347" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="E347" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F347" t="n">
+        <v>1015194</v>
+      </c>
+      <c r="G347" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C348" t="n">
+        <v>99.84999999999999</v>
+      </c>
+      <c r="D348" t="n">
+        <v>96.05</v>
+      </c>
+      <c r="E348" t="n">
+        <v>97.34999999999999</v>
+      </c>
+      <c r="F348" t="n">
+        <v>558713</v>
+      </c>
+      <c r="G348" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/KPITTECH.xlsx
+++ b/techniqo/data_new_ticker/KPITTECH.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G348"/>
+  <dimension ref="A1:G350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12546,6 +12546,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>97.95</v>
+      </c>
+      <c r="C349" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="D349" t="n">
+        <v>96.34999999999999</v>
+      </c>
+      <c r="E349" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="F349" t="n">
+        <v>3118774</v>
+      </c>
+      <c r="G349" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>106</v>
+      </c>
+      <c r="C350" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="D350" t="n">
+        <v>100</v>
+      </c>
+      <c r="E350" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="F350" t="n">
+        <v>3336103</v>
+      </c>
+      <c r="G350" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
